--- a/mean_effect.xlsx
+++ b/mean_effect.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linwan\Documents\0-Science\0-6 Mate-Analysis\0-6-1Hydraulic\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D7981DA-380A-452B-BF5B-5708E220C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{A9C16770-E4E0-4452-8A30-CD6D633EF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690AA7EA-0CBA-422E-916B-0BD22E6F0E4B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean_effect" sheetId="1" r:id="rId1"/>
     <sheet name="TWW" sheetId="2" r:id="rId2"/>
     <sheet name="Soil" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="27">
   <si>
     <t>indicator</t>
   </si>
@@ -108,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,10 +659,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -687,7 +704,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -793,7 +810,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -935,18 +952,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,204 +1051,175 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>42</v>
       </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
       <c r="G4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>-34</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>-45</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>-23</v>
       </c>
       <c r="F6">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>-6</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-34</v>
+        <v>-3</v>
       </c>
       <c r="D7">
-        <v>-45</v>
+        <v>-7</v>
       </c>
       <c r="E7">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>-11</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
         <v>-4</v>
       </c>
     </row>
@@ -1241,14 +1229,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1487,48 +1478,48 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="F12">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>-2</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>-5</v>
       </c>
       <c r="F13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -1539,67 +1530,67 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <v>42</v>
       </c>
-      <c r="E15">
-        <v>35</v>
-      </c>
-      <c r="F15">
-        <v>48</v>
-      </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
       <c r="H15">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>-2</v>
+        <v>141</v>
       </c>
       <c r="E17">
-        <v>-5</v>
+        <v>129</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1607,205 +1598,205 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>-6</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>141</v>
+        <v>-77</v>
       </c>
       <c r="E22">
-        <v>129</v>
+        <v>-94</v>
       </c>
       <c r="F22">
-        <v>153</v>
+        <v>-60</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G23">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>-1</v>
-      </c>
-      <c r="E24">
-        <v>-6</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>-34</v>
       </c>
       <c r="E25">
-        <v>37</v>
+        <v>-45</v>
       </c>
       <c r="F25">
-        <v>49</v>
+        <v>-23</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>-77</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>-94</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>-60</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1813,90 +1804,90 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="F28">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>-34</v>
+        <v>-3</v>
       </c>
       <c r="E30">
-        <v>-45</v>
+        <v>-7</v>
       </c>
       <c r="F30">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -1907,278 +1898,184 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D33">
+        <v>-2</v>
+      </c>
+      <c r="E33">
+        <v>-4</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>-1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
       <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33">
         <v>6</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D35">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E35">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H35">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>-2</v>
+        <v>69</v>
       </c>
       <c r="E37">
-        <v>-3</v>
+        <v>64</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>73</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>-5</v>
+      </c>
+      <c r="E39">
+        <v>-14</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G40">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42">
-        <v>41</v>
-      </c>
-      <c r="D42">
-        <v>69</v>
-      </c>
-      <c r="E42">
-        <v>64</v>
-      </c>
-      <c r="F42">
-        <v>73</v>
-      </c>
-      <c r="G42">
-        <v>8</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43">
-        <v>42</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>7</v>
-      </c>
-      <c r="G43">
-        <v>29</v>
-      </c>
-      <c r="H43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44">
-        <v>43</v>
-      </c>
-      <c r="D44">
-        <v>-5</v>
-      </c>
-      <c r="E44">
-        <v>-14</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>44</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
-      <c r="H45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46">
         <v>45</v>
       </c>
     </row>
@@ -2188,11 +2085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/mean_effect.xlsx
+++ b/mean_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{A9C16770-E4E0-4452-8A30-CD6D633EF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690AA7EA-0CBA-422E-916B-0BD22E6F0E4B}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{A9C16770-E4E0-4452-8A30-CD6D633EF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB36987-C3B8-4B95-BE61-C61B3654553A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="26">
   <si>
     <t>indicator</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>sodium adsorption ration</t>
-  </si>
-  <si>
-    <t>exchangeable sodium percentage</t>
   </si>
   <si>
     <t>pH</t>
@@ -1022,7 +1019,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1051,7 +1048,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1080,7 +1077,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1109,7 +1106,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1138,7 +1135,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1167,7 +1164,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1196,7 +1193,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1272,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1298,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1324,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1384,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1410,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1436,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1478,10 +1475,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -1504,10 +1501,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1564,7 +1561,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1572,10 +1569,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -1598,10 +1595,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -1624,10 +1621,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>23</v>
@@ -1650,7 +1647,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1676,7 +1673,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>25</v>
@@ -1684,10 +1681,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>26</v>
@@ -1710,10 +1707,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>27</v>
@@ -1736,7 +1733,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>28</v>
@@ -1744,7 +1741,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1770,7 +1767,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -1778,10 +1775,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>31</v>
@@ -1804,10 +1801,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>32</v>
@@ -1830,7 +1827,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>33</v>
@@ -1838,7 +1835,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1864,7 +1861,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>35</v>
@@ -1872,10 +1869,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>36</v>
@@ -1898,10 +1895,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>37</v>
@@ -1924,10 +1921,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>38</v>
@@ -1935,7 +1932,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1961,7 +1958,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>40</v>
@@ -1969,10 +1966,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
         <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
       </c>
       <c r="C37">
         <v>41</v>
@@ -1995,10 +1992,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>42</v>
@@ -2021,10 +2018,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>43</v>
@@ -2047,7 +2044,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -2073,7 +2070,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>45</v>
@@ -2086,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2403,25 +2400,25 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>76</v>
+        <v>-2</v>
       </c>
       <c r="F12">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>-8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2435,25 +2432,25 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G13">
+        <v>28</v>
+      </c>
+      <c r="H13">
         <v>9</v>
       </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
       <c r="I13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2467,19 +2464,19 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>-12</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>-19</v>
       </c>
       <c r="F14">
-        <v>29</v>
+        <v>-5</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>7</v>
@@ -2499,25 +2496,25 @@
         <v>14</v>
       </c>
       <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <v>42</v>
       </c>
-      <c r="E15">
-        <v>35</v>
-      </c>
-      <c r="F15">
-        <v>48</v>
-      </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
       <c r="H15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2539,13 +2536,13 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>9</v>
@@ -2554,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2571,25 +2568,25 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>-3</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="G18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>-3</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2603,25 +2600,25 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>-12</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>-19</v>
+        <v>22</v>
       </c>
       <c r="F19">
-        <v>-5</v>
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2635,25 +2632,25 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2675,25 +2672,25 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>-65</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>-76</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>-54</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J22">
-        <v>-6</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2707,25 +2704,25 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F23">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G23">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J23">
-        <v>-7</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2739,13 +2736,13 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>-41</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>-47</v>
       </c>
       <c r="F24">
-        <v>33</v>
+        <v>-34</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2754,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2771,25 +2768,25 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>43</v>
+        <v>-34</v>
       </c>
       <c r="E25">
-        <v>37</v>
+        <v>-45</v>
       </c>
       <c r="F25">
-        <v>49</v>
+        <v>-23</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J25">
-        <v>-6</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2811,25 +2808,25 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>-76</v>
+        <v>-1</v>
       </c>
       <c r="F27">
-        <v>-54</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>-11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2843,25 +2840,25 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>72</v>
+        <v>-7</v>
       </c>
       <c r="E28">
-        <v>57</v>
+        <v>-12</v>
       </c>
       <c r="F28">
-        <v>88</v>
+        <v>-1</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>-16</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2875,25 +2872,25 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>-41</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>-7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2907,25 +2904,25 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>-34</v>
+        <v>-3</v>
       </c>
       <c r="E30">
-        <v>-45</v>
+        <v>-7</v>
       </c>
       <c r="F30">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>-11</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2956,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2979,25 +2976,25 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E33">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>-6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -3011,19 +3008,19 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -3043,25 +3040,25 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E35">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H35">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -3083,25 +3080,25 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -3115,25 +3112,25 @@
         <v>37</v>
       </c>
       <c r="D38">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H38">
         <v>9</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3146,27 +3143,6 @@
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>-2</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>-3</v>
-      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -3179,25 +3155,25 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>14</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
         <v>-4</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>45</v>
-      </c>
-      <c r="H40">
-        <v>13</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -3206,121 +3182,6 @@
       </c>
       <c r="C41">
         <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>41</v>
-      </c>
-      <c r="D42">
-        <v>-7</v>
-      </c>
-      <c r="E42">
-        <v>-11</v>
-      </c>
-      <c r="F42">
-        <v>-3</v>
-      </c>
-      <c r="G42">
-        <v>17</v>
-      </c>
-      <c r="H42">
-        <v>7</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <v>42</v>
-      </c>
-      <c r="D43">
-        <v>24</v>
-      </c>
-      <c r="E43">
-        <v>20</v>
-      </c>
-      <c r="F43">
-        <v>29</v>
-      </c>
-      <c r="G43">
-        <v>28</v>
-      </c>
-      <c r="H43">
-        <v>9</v>
-      </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-      <c r="J43">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>44</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
-      <c r="H45">
-        <v>15</v>
-      </c>
-      <c r="I45">
-        <v>4</v>
-      </c>
-      <c r="J45">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/mean_effect.xlsx
+++ b/mean_effect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{A9C16770-E4E0-4452-8A30-CD6D633EF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB36987-C3B8-4B95-BE61-C61B3654553A}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{A9C16770-E4E0-4452-8A30-CD6D633EF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292D40F2-A415-4E90-AE38-AF26FDF7ED3E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean_effect" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,25 +1025,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,19 +1387,19 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
         <v>3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1413,19 +1413,19 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="F8">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1450,19 +1450,19 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="E10">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1481,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>-2</v>
@@ -1507,7 +1507,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>-2</v>
@@ -1530,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1541,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1564,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>141</v>
@@ -1601,7 +1601,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -1627,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1653,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>43</v>
@@ -1676,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1687,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>-77</v>
@@ -1713,7 +1713,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>70</v>
@@ -1736,7 +1736,7 @@
         <v>16</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1747,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>-34</v>
@@ -1770,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1807,7 +1807,7 @@
         <v>21</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1841,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>-3</v>
@@ -1864,7 +1864,7 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
         <v>20</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>-2</v>
@@ -1901,7 +1901,7 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>-2</v>
@@ -1927,7 +1927,7 @@
         <v>22</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1938,7 +1938,7 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>-2</v>
@@ -1961,7 +1961,7 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D37">
         <v>69</v>
@@ -1998,7 +1998,7 @@
         <v>21</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -2024,7 +2024,7 @@
         <v>22</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D39">
         <v>-5</v>
@@ -2050,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -2073,7 +2073,7 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,19 +2264,19 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>9</v>
@@ -2296,19 +2296,19 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
         <v>7</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
       </c>
       <c r="I8">
         <v>9</v>
@@ -2328,19 +2328,19 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="E9">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="F9">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>14</v>
@@ -2360,25 +2360,25 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="E10">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="F10">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">

--- a/mean_effect.xlsx
+++ b/mean_effect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/lin_wang_ugent_be/Documents/Desktop/Documents/0-Science/0-6 Mate-Analysis/0-6-1Hydraulic/R/major/remove_25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{A9C16770-E4E0-4452-8A30-CD6D633EF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292D40F2-A415-4E90-AE38-AF26FDF7ED3E}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{A9C16770-E4E0-4452-8A30-CD6D633EF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{587A6635-A446-4E64-B961-0495B16EF776}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean_effect" sheetId="1" r:id="rId1"/>
@@ -661,9 +661,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -701,7 +701,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -807,7 +807,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -949,7 +949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,7 +960,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,19 +1060,19 @@
         <v>-3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1141,25 +1141,25 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D7">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1170,25 +1170,25 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,13 +1550,13 @@
         <v>-3</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1844,19 +1844,19 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="E30">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1941,19 +1941,19 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E35">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2438,19 +2438,19 @@
         <v>-3</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2464,25 +2464,26 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="E14">
-        <v>-19</v>
+        <v>-24</v>
       </c>
       <c r="F14">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>2</f>
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
       <c r="J14">
-        <v>-7</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2502,19 +2503,19 @@
         <v>-3</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2840,25 +2841,25 @@
         <v>27</v>
       </c>
       <c r="D28">
+        <v>-11</v>
+      </c>
+      <c r="E28">
+        <v>-17</v>
+      </c>
+      <c r="F28">
+        <v>-4</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
         <v>-7</v>
-      </c>
-      <c r="E28">
-        <v>-12</v>
-      </c>
-      <c r="F28">
-        <v>-1</v>
-      </c>
-      <c r="G28">
-        <v>12</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>-6</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2875,22 +2876,22 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2904,25 +2905,25 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="E30">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
       <c r="J30">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2976,19 +2977,19 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E33">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -3008,7 +3009,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>-2</v>
@@ -3017,16 +3018,16 @@
         <v>3</v>
       </c>
       <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>3</v>
       </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
       <c r="J34">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -3040,25 +3041,25 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E35">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
